--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2b05\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{221F3A70-E47C-4BF1-8CB6-3A879D6AE9C2}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C7AE402-CDB8-4315-A5F7-F5A321090909}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitions" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="142">
   <si>
     <t>Date</t>
   </si>
@@ -139,6 +140,9 @@
     <t>Mead and Cider</t>
   </si>
   <si>
+    <t>Mead and Fruit Beers</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -452,6 +456,9 @@
   </si>
   <si>
     <t>Belgian Quad</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +1015,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:D37" totalsRowShown="0">
-  <autoFilter ref="A1:D37" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:D43" totalsRowShown="0">
+  <autoFilter ref="A1:D43" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Style"/>
@@ -1021,8 +1028,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:D119" totalsRowShown="0">
-  <autoFilter ref="A1:D119" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:D123" totalsRowShown="0">
+  <autoFilter ref="A1:D123" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name"/>
@@ -1034,8 +1041,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="A1:A22" totalsRowShown="0">
-  <autoFilter ref="A1:A22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="A1:A23" totalsRowShown="0">
+  <autoFilter ref="A1:A23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name"/>
   </tableColumns>
@@ -1340,15 +1347,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
@@ -1869,6 +1876,90 @@
         <v>24</v>
       </c>
       <c r="D37">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>44418</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>44481</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43">
         <v>2015</v>
       </c>
     </row>
@@ -1882,10 +1973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1901,13 +1992,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1915,10 +2006,10 @@
         <v>43109</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -1929,10 +2020,10 @@
         <v>43109</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1943,10 +2034,10 @@
         <v>43109</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1957,7 +2048,7 @@
         <v>43109</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -1968,7 +2059,7 @@
         <v>43109</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -1979,10 +2070,10 @@
         <v>43137</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1993,10 +2084,10 @@
         <v>43137</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2007,10 +2098,10 @@
         <v>43137</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2021,10 +2112,10 @@
         <v>43172</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -2035,10 +2126,10 @@
         <v>43172</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -2049,10 +2140,10 @@
         <v>43172</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2063,7 +2154,7 @@
         <v>43172</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>0.5</v>
@@ -2074,10 +2165,10 @@
         <v>43200</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -2088,10 +2179,10 @@
         <v>43200</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2102,10 +2193,10 @@
         <v>43235</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -2116,10 +2207,10 @@
         <v>43235</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2130,10 +2221,10 @@
         <v>43235</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2144,7 +2235,7 @@
         <v>43235</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>0.5</v>
@@ -2155,7 +2246,7 @@
         <v>43235</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>0.5</v>
@@ -2166,7 +2257,7 @@
         <v>43235</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D21">
         <v>0.5</v>
@@ -2177,7 +2268,7 @@
         <v>43235</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22">
         <v>0.5</v>
@@ -2188,7 +2279,7 @@
         <v>43235</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <v>0.5</v>
@@ -2199,7 +2290,7 @@
         <v>43235</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>0.5</v>
@@ -2210,10 +2301,10 @@
         <v>43263</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -2224,10 +2315,10 @@
         <v>43263</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2238,10 +2329,10 @@
         <v>43263</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2252,7 +2343,7 @@
         <v>43263</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D28">
         <v>0.5</v>
@@ -2263,7 +2354,7 @@
         <v>43263</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <v>0.5</v>
@@ -2274,10 +2365,10 @@
         <v>43291</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -2288,10 +2379,10 @@
         <v>43291</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2302,10 +2393,10 @@
         <v>43291</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2316,10 +2407,10 @@
         <v>43326</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -2330,10 +2421,10 @@
         <v>43326</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2344,10 +2435,10 @@
         <v>43326</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2358,10 +2449,10 @@
         <v>43382</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -2372,7 +2463,7 @@
         <v>43326</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D37">
         <v>0.5</v>
@@ -2383,7 +2474,7 @@
         <v>43326</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D38">
         <v>0.5</v>
@@ -2394,7 +2485,7 @@
         <v>43326</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D39">
         <v>0.5</v>
@@ -2405,7 +2496,7 @@
         <v>43326</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40">
         <v>0.5</v>
@@ -2416,7 +2507,7 @@
         <v>43326</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D41">
         <v>0.5</v>
@@ -2427,7 +2518,7 @@
         <v>43326</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D42">
         <v>0.5</v>
@@ -2438,10 +2529,10 @@
         <v>43382</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2452,10 +2543,10 @@
         <v>43382</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2466,10 +2557,10 @@
         <v>43382</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D45">
         <v>0.5</v>
@@ -2480,10 +2571,10 @@
         <v>43354</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -2494,10 +2585,10 @@
         <v>43473</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -2508,10 +2599,10 @@
         <v>43473</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -2522,10 +2613,10 @@
         <v>43473</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2536,10 +2627,10 @@
         <v>43473</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D50">
         <v>0.5</v>
@@ -2550,10 +2641,10 @@
         <v>43473</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D51">
         <v>0.5</v>
@@ -2564,10 +2655,10 @@
         <v>43473</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D52">
         <v>0.5</v>
@@ -2578,10 +2669,10 @@
         <v>43508</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -2592,10 +2683,10 @@
         <v>43508</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -2606,10 +2697,10 @@
         <v>43536</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -2620,10 +2711,10 @@
         <v>43536</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -2634,10 +2725,10 @@
         <v>43536</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2648,10 +2739,10 @@
         <v>43536</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D58">
         <v>0.5</v>
@@ -2662,10 +2753,10 @@
         <v>43536</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D59">
         <v>0.5</v>
@@ -2676,10 +2767,10 @@
         <v>43627</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -2690,10 +2781,10 @@
         <v>43627</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -2704,10 +2795,10 @@
         <v>43627</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2718,10 +2809,10 @@
         <v>43627</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D63">
         <v>0.5</v>
@@ -2732,10 +2823,10 @@
         <v>43627</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D64">
         <v>0.5</v>
@@ -2746,10 +2837,10 @@
         <v>43627</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D65">
         <v>0.5</v>
@@ -2760,10 +2851,10 @@
         <v>43627</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D66">
         <v>0.5</v>
@@ -2774,10 +2865,10 @@
         <v>43627</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D67">
         <v>0.5</v>
@@ -2788,10 +2879,10 @@
         <v>43627</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D68">
         <v>0.5</v>
@@ -2802,10 +2893,10 @@
         <v>43627</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D69">
         <v>0.5</v>
@@ -2816,10 +2907,10 @@
         <v>43655</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -2830,10 +2921,10 @@
         <v>43655</v>
       </c>
       <c r="B71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -2844,10 +2935,10 @@
         <v>43655</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2858,10 +2949,10 @@
         <v>43655</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D73">
         <v>0.5</v>
@@ -2872,10 +2963,10 @@
         <v>43690</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -2886,10 +2977,10 @@
         <v>43690</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -2900,10 +2991,10 @@
         <v>43690</v>
       </c>
       <c r="B76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -2914,10 +3005,10 @@
         <v>43690</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D77">
         <v>0.5</v>
@@ -2928,10 +3019,10 @@
         <v>43690</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D78">
         <v>0.5</v>
@@ -2942,10 +3033,10 @@
         <v>43690</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D79">
         <v>0.5</v>
@@ -2956,10 +3047,10 @@
         <v>43690</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D80">
         <v>0.5</v>
@@ -2970,10 +3061,10 @@
         <v>43718</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -2984,10 +3075,10 @@
         <v>43718</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C82" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -2998,10 +3089,10 @@
         <v>43718</v>
       </c>
       <c r="B83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3012,10 +3103,10 @@
         <v>43718</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D84">
         <v>0.5</v>
@@ -3026,10 +3117,10 @@
         <v>43718</v>
       </c>
       <c r="B85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C85" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D85">
         <v>0.5</v>
@@ -3040,10 +3131,10 @@
         <v>43718</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C86" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D86">
         <v>0.5</v>
@@ -3054,10 +3145,10 @@
         <v>43746</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C87" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -3068,10 +3159,10 @@
         <v>43746</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -3082,10 +3173,10 @@
         <v>43746</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -3096,10 +3187,10 @@
         <v>43781</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -3110,10 +3201,10 @@
         <v>43781</v>
       </c>
       <c r="B91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C91" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -3124,10 +3215,10 @@
         <v>43781</v>
       </c>
       <c r="B92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C92" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -3138,10 +3229,10 @@
         <v>43781</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C93" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D93">
         <v>0.5</v>
@@ -3152,10 +3243,10 @@
         <v>43781</v>
       </c>
       <c r="B94" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C94" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D94">
         <v>0.5</v>
@@ -3166,10 +3257,10 @@
         <v>43809</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C95" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -3180,10 +3271,10 @@
         <v>43809</v>
       </c>
       <c r="B96" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -3194,10 +3285,10 @@
         <v>43809</v>
       </c>
       <c r="B97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C97" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D97">
         <v>0.5</v>
@@ -3208,10 +3299,10 @@
         <v>43809</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C98" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D98">
         <v>0.5</v>
@@ -3222,10 +3313,10 @@
         <v>43809</v>
       </c>
       <c r="B99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C99" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D99">
         <v>0.5</v>
@@ -3236,10 +3327,10 @@
         <v>43809</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D100">
         <v>0.5</v>
@@ -3250,10 +3341,10 @@
         <v>43809</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C101" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D101">
         <v>0.5</v>
@@ -3264,10 +3355,10 @@
         <v>43809</v>
       </c>
       <c r="B102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C102" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D102">
         <v>0.5</v>
@@ -3278,10 +3369,10 @@
         <v>43809</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C103" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D103">
         <v>0.5</v>
@@ -3292,10 +3383,10 @@
         <v>43809</v>
       </c>
       <c r="B104" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C104" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -3306,10 +3397,10 @@
         <v>43809</v>
       </c>
       <c r="B105" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C105" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D105">
         <v>0.5</v>
@@ -3320,10 +3411,10 @@
         <v>43844</v>
       </c>
       <c r="B106" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C106" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -3334,10 +3425,10 @@
         <v>43844</v>
       </c>
       <c r="B107" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -3348,10 +3439,10 @@
         <v>43844</v>
       </c>
       <c r="B108" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -3362,10 +3453,10 @@
         <v>43844</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C109" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D109">
         <v>0.5</v>
@@ -3376,10 +3467,10 @@
         <v>43844</v>
       </c>
       <c r="B110" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C110" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D110">
         <v>0.5</v>
@@ -3390,10 +3481,10 @@
         <v>43844</v>
       </c>
       <c r="B111" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C111" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D111">
         <v>0.5</v>
@@ -3404,10 +3495,10 @@
         <v>43844</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C112" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D112">
         <v>0.5</v>
@@ -3418,10 +3509,10 @@
         <v>43872</v>
       </c>
       <c r="B113" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C113" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D113">
         <v>3</v>
@@ -3432,10 +3523,10 @@
         <v>43872</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D114">
         <v>2</v>
@@ -3446,10 +3537,10 @@
         <v>43872</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C115" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -3460,10 +3551,10 @@
         <v>43872</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C116" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D116">
         <v>0.5</v>
@@ -3474,10 +3565,10 @@
         <v>43872</v>
       </c>
       <c r="B117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D117">
         <v>0.5</v>
@@ -3488,10 +3579,10 @@
         <v>43872</v>
       </c>
       <c r="B118" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D118">
         <v>0.5</v>
@@ -3502,12 +3593,68 @@
         <v>43872</v>
       </c>
       <c r="B119" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C119" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D119">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B120" t="s">
+        <v>39</v>
+      </c>
+      <c r="C120" t="s">
+        <v>120</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B121" t="s">
+        <v>69</v>
+      </c>
+      <c r="C121" t="s">
+        <v>102</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B122" t="s">
+        <v>141</v>
+      </c>
+      <c r="C122" t="s">
+        <v>109</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B123" t="s">
+        <v>101</v>
+      </c>
+      <c r="C123" t="s">
+        <v>84</v>
+      </c>
+      <c r="D123">
         <v>0.5</v>
       </c>
     </row>
@@ -3539,10 +3686,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3552,112 +3699,117 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2b05\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C7AE402-CDB8-4315-A5F7-F5A321090909}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D39708A-8650-4957-9FAC-E20B3FEE12FF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitions" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="143">
   <si>
     <t>Date</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>John</t>
+  </si>
+  <si>
+    <t>American Wheat</t>
   </si>
 </sst>
 </file>
@@ -1028,8 +1031,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:D123" totalsRowShown="0">
-  <autoFilter ref="A1:D123" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:D125" totalsRowShown="0">
+  <autoFilter ref="A1:D125" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name"/>
@@ -1973,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="C106" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3656,6 +3659,34 @@
       </c>
       <c r="D123">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>44418</v>
+      </c>
+      <c r="B124" t="s">
+        <v>101</v>
+      </c>
+      <c r="C124" t="s">
+        <v>142</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>44418</v>
+      </c>
+      <c r="B125" t="s">
+        <v>66</v>
+      </c>
+      <c r="C125" t="s">
+        <v>84</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2b05\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D39708A-8650-4957-9FAC-E20B3FEE12FF}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D623C302-D8CD-49CC-84A3-AB9CC100797A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitions" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="149">
   <si>
     <t>Date</t>
   </si>
@@ -141,6 +141,24 @@
   </si>
   <si>
     <t>Mead and Fruit Beers</t>
+  </si>
+  <si>
+    <t>Open/Club Brews</t>
+  </si>
+  <si>
+    <t>All Non-American Styles (European, Mexican, etc.)</t>
+  </si>
+  <si>
+    <t>Lagers and Sour/Funky Beers</t>
+  </si>
+  <si>
+    <t>American and Hoppy Beers</t>
+  </si>
+  <si>
+    <t>Open (focus on a "clone" beer)</t>
+  </si>
+  <si>
+    <t>Club Brew/Big Brew Day</t>
   </si>
   <si>
     <t>Name</t>
@@ -1018,8 +1036,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:D43" totalsRowShown="0">
-  <autoFilter ref="A1:D43" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:D49" totalsRowShown="0">
+  <autoFilter ref="A1:D49" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Style"/>
@@ -1350,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1966,6 +1984,72 @@
         <v>2015</v>
       </c>
     </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>44600</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>44726</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49">
+        <v>2015</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1978,7 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
@@ -1995,13 +2079,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2009,10 +2093,10 @@
         <v>43109</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -2023,10 +2107,10 @@
         <v>43109</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2037,10 +2121,10 @@
         <v>43109</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2051,7 +2135,7 @@
         <v>43109</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -2062,7 +2146,7 @@
         <v>43109</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -2073,10 +2157,10 @@
         <v>43137</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -2087,10 +2171,10 @@
         <v>43137</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2101,10 +2185,10 @@
         <v>43137</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2115,10 +2199,10 @@
         <v>43172</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -2129,10 +2213,10 @@
         <v>43172</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -2143,10 +2227,10 @@
         <v>43172</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2157,7 +2241,7 @@
         <v>43172</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>0.5</v>
@@ -2168,10 +2252,10 @@
         <v>43200</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -2182,10 +2266,10 @@
         <v>43200</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2196,10 +2280,10 @@
         <v>43235</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -2210,10 +2294,10 @@
         <v>43235</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2224,10 +2308,10 @@
         <v>43235</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2238,7 +2322,7 @@
         <v>43235</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D19">
         <v>0.5</v>
@@ -2249,7 +2333,7 @@
         <v>43235</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>0.5</v>
@@ -2260,7 +2344,7 @@
         <v>43235</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>0.5</v>
@@ -2271,7 +2355,7 @@
         <v>43235</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D22">
         <v>0.5</v>
@@ -2282,7 +2366,7 @@
         <v>43235</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D23">
         <v>0.5</v>
@@ -2293,7 +2377,7 @@
         <v>43235</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D24">
         <v>0.5</v>
@@ -2304,10 +2388,10 @@
         <v>43263</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -2318,10 +2402,10 @@
         <v>43263</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2332,10 +2416,10 @@
         <v>43263</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2346,7 +2430,7 @@
         <v>43263</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>0.5</v>
@@ -2357,7 +2441,7 @@
         <v>43263</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D29">
         <v>0.5</v>
@@ -2368,10 +2452,10 @@
         <v>43291</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -2382,10 +2466,10 @@
         <v>43291</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2396,10 +2480,10 @@
         <v>43291</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2410,10 +2494,10 @@
         <v>43326</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -2424,10 +2508,10 @@
         <v>43326</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2438,10 +2522,10 @@
         <v>43326</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2452,10 +2536,10 @@
         <v>43382</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -2466,7 +2550,7 @@
         <v>43326</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D37">
         <v>0.5</v>
@@ -2477,7 +2561,7 @@
         <v>43326</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D38">
         <v>0.5</v>
@@ -2488,7 +2572,7 @@
         <v>43326</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D39">
         <v>0.5</v>
@@ -2499,7 +2583,7 @@
         <v>43326</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D40">
         <v>0.5</v>
@@ -2510,7 +2594,7 @@
         <v>43326</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D41">
         <v>0.5</v>
@@ -2521,7 +2605,7 @@
         <v>43326</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D42">
         <v>0.5</v>
@@ -2532,10 +2616,10 @@
         <v>43382</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2546,10 +2630,10 @@
         <v>43382</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2560,10 +2644,10 @@
         <v>43382</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D45">
         <v>0.5</v>
@@ -2574,10 +2658,10 @@
         <v>43354</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -2588,10 +2672,10 @@
         <v>43473</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -2602,10 +2686,10 @@
         <v>43473</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -2616,10 +2700,10 @@
         <v>43473</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2630,10 +2714,10 @@
         <v>43473</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D50">
         <v>0.5</v>
@@ -2644,10 +2728,10 @@
         <v>43473</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D51">
         <v>0.5</v>
@@ -2658,10 +2742,10 @@
         <v>43473</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D52">
         <v>0.5</v>
@@ -2672,10 +2756,10 @@
         <v>43508</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -2686,10 +2770,10 @@
         <v>43508</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -2700,10 +2784,10 @@
         <v>43536</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -2714,10 +2798,10 @@
         <v>43536</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -2728,10 +2812,10 @@
         <v>43536</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2742,10 +2826,10 @@
         <v>43536</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D58">
         <v>0.5</v>
@@ -2756,10 +2840,10 @@
         <v>43536</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D59">
         <v>0.5</v>
@@ -2770,10 +2854,10 @@
         <v>43627</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -2784,10 +2868,10 @@
         <v>43627</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -2798,10 +2882,10 @@
         <v>43627</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2812,10 +2896,10 @@
         <v>43627</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D63">
         <v>0.5</v>
@@ -2826,10 +2910,10 @@
         <v>43627</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D64">
         <v>0.5</v>
@@ -2840,10 +2924,10 @@
         <v>43627</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D65">
         <v>0.5</v>
@@ -2854,10 +2938,10 @@
         <v>43627</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D66">
         <v>0.5</v>
@@ -2868,10 +2952,10 @@
         <v>43627</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D67">
         <v>0.5</v>
@@ -2882,10 +2966,10 @@
         <v>43627</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D68">
         <v>0.5</v>
@@ -2896,10 +2980,10 @@
         <v>43627</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D69">
         <v>0.5</v>
@@ -2910,10 +2994,10 @@
         <v>43655</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -2924,10 +3008,10 @@
         <v>43655</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -2938,10 +3022,10 @@
         <v>43655</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2952,10 +3036,10 @@
         <v>43655</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D73">
         <v>0.5</v>
@@ -2966,10 +3050,10 @@
         <v>43690</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -2980,10 +3064,10 @@
         <v>43690</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -2994,10 +3078,10 @@
         <v>43690</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C76" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3008,10 +3092,10 @@
         <v>43690</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D77">
         <v>0.5</v>
@@ -3022,10 +3106,10 @@
         <v>43690</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D78">
         <v>0.5</v>
@@ -3036,10 +3120,10 @@
         <v>43690</v>
       </c>
       <c r="B79" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C79" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D79">
         <v>0.5</v>
@@ -3050,10 +3134,10 @@
         <v>43690</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C80" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D80">
         <v>0.5</v>
@@ -3064,10 +3148,10 @@
         <v>43718</v>
       </c>
       <c r="B81" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C81" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -3078,10 +3162,10 @@
         <v>43718</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -3092,10 +3176,10 @@
         <v>43718</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C83" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3106,10 +3190,10 @@
         <v>43718</v>
       </c>
       <c r="B84" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D84">
         <v>0.5</v>
@@ -3120,10 +3204,10 @@
         <v>43718</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D85">
         <v>0.5</v>
@@ -3134,10 +3218,10 @@
         <v>43718</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C86" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D86">
         <v>0.5</v>
@@ -3148,10 +3232,10 @@
         <v>43746</v>
       </c>
       <c r="B87" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C87" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -3162,10 +3246,10 @@
         <v>43746</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C88" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -3176,10 +3260,10 @@
         <v>43746</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C89" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -3190,10 +3274,10 @@
         <v>43781</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -3204,10 +3288,10 @@
         <v>43781</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -3218,10 +3302,10 @@
         <v>43781</v>
       </c>
       <c r="B92" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C92" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -3232,10 +3316,10 @@
         <v>43781</v>
       </c>
       <c r="B93" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C93" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D93">
         <v>0.5</v>
@@ -3246,10 +3330,10 @@
         <v>43781</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C94" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D94">
         <v>0.5</v>
@@ -3260,10 +3344,10 @@
         <v>43809</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C95" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -3274,10 +3358,10 @@
         <v>43809</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C96" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -3288,10 +3372,10 @@
         <v>43809</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C97" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D97">
         <v>0.5</v>
@@ -3302,10 +3386,10 @@
         <v>43809</v>
       </c>
       <c r="B98" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C98" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D98">
         <v>0.5</v>
@@ -3316,10 +3400,10 @@
         <v>43809</v>
       </c>
       <c r="B99" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C99" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D99">
         <v>0.5</v>
@@ -3330,10 +3414,10 @@
         <v>43809</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C100" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D100">
         <v>0.5</v>
@@ -3344,10 +3428,10 @@
         <v>43809</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C101" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D101">
         <v>0.5</v>
@@ -3358,10 +3442,10 @@
         <v>43809</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C102" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D102">
         <v>0.5</v>
@@ -3372,10 +3456,10 @@
         <v>43809</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C103" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D103">
         <v>0.5</v>
@@ -3386,10 +3470,10 @@
         <v>43809</v>
       </c>
       <c r="B104" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C104" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -3400,10 +3484,10 @@
         <v>43809</v>
       </c>
       <c r="B105" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C105" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D105">
         <v>0.5</v>
@@ -3414,10 +3498,10 @@
         <v>43844</v>
       </c>
       <c r="B106" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C106" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -3428,10 +3512,10 @@
         <v>43844</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -3442,10 +3526,10 @@
         <v>43844</v>
       </c>
       <c r="B108" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C108" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -3456,10 +3540,10 @@
         <v>43844</v>
       </c>
       <c r="B109" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C109" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D109">
         <v>0.5</v>
@@ -3470,10 +3554,10 @@
         <v>43844</v>
       </c>
       <c r="B110" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C110" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D110">
         <v>0.5</v>
@@ -3484,10 +3568,10 @@
         <v>43844</v>
       </c>
       <c r="B111" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C111" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D111">
         <v>0.5</v>
@@ -3498,10 +3582,10 @@
         <v>43844</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C112" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D112">
         <v>0.5</v>
@@ -3512,10 +3596,10 @@
         <v>43872</v>
       </c>
       <c r="B113" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C113" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D113">
         <v>3</v>
@@ -3526,10 +3610,10 @@
         <v>43872</v>
       </c>
       <c r="B114" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C114" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D114">
         <v>2</v>
@@ -3540,10 +3624,10 @@
         <v>43872</v>
       </c>
       <c r="B115" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C115" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -3554,10 +3638,10 @@
         <v>43872</v>
       </c>
       <c r="B116" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C116" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D116">
         <v>0.5</v>
@@ -3568,10 +3652,10 @@
         <v>43872</v>
       </c>
       <c r="B117" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C117" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D117">
         <v>0.5</v>
@@ -3582,10 +3666,10 @@
         <v>43872</v>
       </c>
       <c r="B118" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C118" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D118">
         <v>0.5</v>
@@ -3596,10 +3680,10 @@
         <v>43872</v>
       </c>
       <c r="B119" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C119" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D119">
         <v>0.5</v>
@@ -3610,10 +3694,10 @@
         <v>44392</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C120" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D120">
         <v>3</v>
@@ -3624,10 +3708,10 @@
         <v>44392</v>
       </c>
       <c r="B121" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C121" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -3638,10 +3722,10 @@
         <v>44392</v>
       </c>
       <c r="B122" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C122" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -3652,10 +3736,10 @@
         <v>44392</v>
       </c>
       <c r="B123" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C123" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D123">
         <v>0.5</v>
@@ -3666,10 +3750,10 @@
         <v>44418</v>
       </c>
       <c r="B124" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C124" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D124">
         <v>3</v>
@@ -3680,10 +3764,10 @@
         <v>44418</v>
       </c>
       <c r="B125" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C125" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -3730,117 +3814,117 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2b05\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D623C302-D8CD-49CC-84A3-AB9CC100797A}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0164F045-3BB9-419C-9C7D-4671EDB2F50C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitions" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="149">
   <si>
     <t>Date</t>
   </si>
@@ -1371,7 +1371,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1991,6 +1991,9 @@
       <c r="B44" t="s">
         <v>36</v>
       </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D44">
         <v>2015</v>
       </c>
@@ -2002,6 +2005,9 @@
       <c r="B45" t="s">
         <v>37</v>
       </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D45">
         <v>2015</v>
       </c>
@@ -2013,6 +2019,9 @@
       <c r="B46" t="s">
         <v>38</v>
       </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D46">
         <v>2015</v>
       </c>
@@ -2024,6 +2033,9 @@
       <c r="B47" t="s">
         <v>39</v>
       </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D47">
         <v>2015</v>
       </c>
@@ -2035,6 +2047,9 @@
       <c r="B48" t="s">
         <v>40</v>
       </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D48">
         <v>2015</v>
       </c>
@@ -2045,6 +2060,9 @@
       </c>
       <c r="B49" t="s">
         <v>41</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D49">
         <v>2015</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2b05\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0164F045-3BB9-419C-9C7D-4671EDB2F50C}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCA37BD3-00BC-40B2-92D6-43BB4889DB41}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitions" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="154">
   <si>
     <t>Date</t>
   </si>
@@ -480,6 +480,21 @@
   </si>
   <si>
     <t>American Wheat</t>
+  </si>
+  <si>
+    <t>Baltic Porter</t>
+  </si>
+  <si>
+    <t>Smoked Porter</t>
+  </si>
+  <si>
+    <t>American Porter</t>
+  </si>
+  <si>
+    <t>Smoked English Porter</t>
+  </si>
+  <si>
+    <t>American Stout w/ Coffee</t>
   </si>
 </sst>
 </file>
@@ -1049,8 +1064,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:D125" totalsRowShown="0">
-  <autoFilter ref="A1:D125" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:D133" totalsRowShown="0">
+  <autoFilter ref="A1:D133" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name"/>
@@ -1370,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -2078,10 +2093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3789,6 +3804,118 @@
       </c>
       <c r="D125">
         <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B126" t="s">
+        <v>47</v>
+      </c>
+      <c r="C126" t="s">
+        <v>149</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B127" t="s">
+        <v>47</v>
+      </c>
+      <c r="C127" t="s">
+        <v>149</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B128" t="s">
+        <v>55</v>
+      </c>
+      <c r="C128" t="s">
+        <v>150</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B129" t="s">
+        <v>47</v>
+      </c>
+      <c r="C129" t="s">
+        <v>118</v>
+      </c>
+      <c r="D129">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B130" t="s">
+        <v>60</v>
+      </c>
+      <c r="C130" t="s">
+        <v>151</v>
+      </c>
+      <c r="D130">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B131" t="s">
+        <v>107</v>
+      </c>
+      <c r="C131" t="s">
+        <v>152</v>
+      </c>
+      <c r="D131">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B132" t="s">
+        <v>45</v>
+      </c>
+      <c r="C132" t="s">
+        <v>109</v>
+      </c>
+      <c r="D132">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B133" t="s">
+        <v>75</v>
+      </c>
+      <c r="C133" t="s">
+        <v>153</v>
+      </c>
+      <c r="D133">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2b05\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb7610fc81a54cae/ABL/ABL 3.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCA37BD3-00BC-40B2-92D6-43BB4889DB41}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E32EFC99-0168-4B18-A730-2D3C74526496}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitions" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="154">
   <si>
     <t>Date</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,8 +1064,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:D133" totalsRowShown="0">
-  <autoFilter ref="A1:D133" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:D139" totalsRowShown="0">
+  <autoFilter ref="A1:D139" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name"/>
@@ -1386,18 +1386,18 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43109</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43137</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43172</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43200</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43235</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43263</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43291</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43326</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43382</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43354</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43417</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43445</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43473</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43508</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43536</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43564</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43599</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43627</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43655</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43690</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43718</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43746</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43781</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43809</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43844</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43872</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43900</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43935</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43963</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43991</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44026</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44054</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44082</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44117</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44145</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44173</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44392</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44418</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44453</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44481</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44509</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44544</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44572</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44600</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44628</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44663</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44691</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44726</v>
       </c>
@@ -2093,21 +2093,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43109</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43109</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43109</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43109</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43109</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43137</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43137</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43137</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43172</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43172</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43172</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43172</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43200</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43200</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43235</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43235</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43235</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43235</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43235</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43235</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43235</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43235</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43235</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43263</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43263</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43263</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43263</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43263</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43291</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43291</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43291</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43326</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43326</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43326</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43382</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43326</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43326</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43326</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43326</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43326</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43326</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43382</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43382</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43382</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43354</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43473</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43473</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43473</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43473</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43473</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43473</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43508</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43508</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43536</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43536</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43536</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43536</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43536</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43627</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43627</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43627</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43627</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43627</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43627</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43627</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43627</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43627</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43627</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43655</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43655</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43655</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43655</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43690</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43690</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43690</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43690</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43690</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43690</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43690</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43718</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43718</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43718</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43718</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43718</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43718</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43746</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43746</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43746</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43781</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43781</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43781</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43781</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43781</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43809</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43809</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43809</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43809</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43809</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43809</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43809</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43809</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43809</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43809</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43809</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43844</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43844</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43844</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43844</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43844</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43844</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43844</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43872</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43872</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43872</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43872</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43872</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43872</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43872</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44392</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44392</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44392</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44392</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44418</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44418</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44509</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44509</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44509</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44509</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44509</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44509</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44509</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44509</v>
       </c>
@@ -3915,6 +3915,90 @@
         <v>153</v>
       </c>
       <c r="D133">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B134" t="s">
+        <v>80</v>
+      </c>
+      <c r="C134" t="s">
+        <v>71</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B135" t="s">
+        <v>45</v>
+      </c>
+      <c r="C135" t="s">
+        <v>115</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B136" t="s">
+        <v>75</v>
+      </c>
+      <c r="C136" t="s">
+        <v>96</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B137" t="s">
+        <v>47</v>
+      </c>
+      <c r="C137" t="s">
+        <v>96</v>
+      </c>
+      <c r="D137">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B138" t="s">
+        <v>80</v>
+      </c>
+      <c r="C138" t="s">
+        <v>96</v>
+      </c>
+      <c r="D138">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B139" t="s">
+        <v>47</v>
+      </c>
+      <c r="C139" t="s">
+        <v>96</v>
+      </c>
+      <c r="D139">
         <v>0.5</v>
       </c>
     </row>
@@ -3952,122 +4036,122 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>147</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb7610fc81a54cae/ABL/ABL 3.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E32EFC99-0168-4B18-A730-2D3C74526496}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E140C33-B441-45E4-A728-38D6D47D5B2A}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitions" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="155">
   <si>
     <t>Date</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>American Stout w/ Coffee</t>
+  </si>
+  <si>
+    <t>Best Bitter</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +1067,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:D139" totalsRowShown="0">
-  <autoFilter ref="A1:D139" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:D144" totalsRowShown="0">
+  <autoFilter ref="A1:D144" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name"/>
@@ -1389,15 +1392,15 @@
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43109</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43137</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43172</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43200</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43235</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43263</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43291</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43326</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43382</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43354</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43417</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43445</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43473</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43508</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43536</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43564</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43599</v>
       </c>
@@ -1649,7 +1652,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43627</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43655</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43690</v>
       </c>
@@ -1691,7 +1694,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43718</v>
       </c>
@@ -1705,7 +1708,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43746</v>
       </c>
@@ -1719,7 +1722,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43781</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43809</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43844</v>
       </c>
@@ -1761,7 +1764,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43872</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43900</v>
       </c>
@@ -1789,7 +1792,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43935</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43963</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43991</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44026</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44054</v>
       </c>
@@ -1859,7 +1862,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44082</v>
       </c>
@@ -1873,7 +1876,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44117</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44145</v>
       </c>
@@ -1901,7 +1904,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44173</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44392</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44418</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44453</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44481</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44509</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44544</v>
       </c>
@@ -1999,7 +2002,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44572</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44600</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44628</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44663</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44691</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44726</v>
       </c>
@@ -2093,21 +2096,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43109</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43109</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43109</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43109</v>
       </c>
@@ -2174,7 +2177,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43109</v>
       </c>
@@ -2185,7 +2188,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43137</v>
       </c>
@@ -2199,7 +2202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43137</v>
       </c>
@@ -2213,7 +2216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43137</v>
       </c>
@@ -2227,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43172</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43172</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43172</v>
       </c>
@@ -2269,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43172</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43200</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43200</v>
       </c>
@@ -2308,7 +2311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43235</v>
       </c>
@@ -2322,7 +2325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43235</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43235</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43235</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43235</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43235</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43235</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43235</v>
       </c>
@@ -2405,7 +2408,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43235</v>
       </c>
@@ -2416,7 +2419,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43263</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43263</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43263</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43263</v>
       </c>
@@ -2469,7 +2472,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43263</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43291</v>
       </c>
@@ -2494,7 +2497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43291</v>
       </c>
@@ -2508,7 +2511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43291</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43326</v>
       </c>
@@ -2536,7 +2539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43326</v>
       </c>
@@ -2550,7 +2553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43326</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43382</v>
       </c>
@@ -2578,7 +2581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43326</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43326</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43326</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43326</v>
       </c>
@@ -2622,7 +2625,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43326</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43326</v>
       </c>
@@ -2644,7 +2647,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43382</v>
       </c>
@@ -2658,7 +2661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43382</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43382</v>
       </c>
@@ -2686,7 +2689,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43354</v>
       </c>
@@ -2700,7 +2703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43473</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43473</v>
       </c>
@@ -2728,7 +2731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43473</v>
       </c>
@@ -2742,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43473</v>
       </c>
@@ -2756,7 +2759,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43473</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43473</v>
       </c>
@@ -2784,7 +2787,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43508</v>
       </c>
@@ -2798,7 +2801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43508</v>
       </c>
@@ -2812,7 +2815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43536</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43536</v>
       </c>
@@ -2840,7 +2843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43536</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43536</v>
       </c>
@@ -2868,7 +2871,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43536</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43627</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43627</v>
       </c>
@@ -2910,7 +2913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43627</v>
       </c>
@@ -2924,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43627</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43627</v>
       </c>
@@ -2952,7 +2955,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43627</v>
       </c>
@@ -2966,7 +2969,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43627</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43627</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43627</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43627</v>
       </c>
@@ -3022,7 +3025,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43655</v>
       </c>
@@ -3036,7 +3039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43655</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43655</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43655</v>
       </c>
@@ -3078,7 +3081,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43690</v>
       </c>
@@ -3092,7 +3095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43690</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43690</v>
       </c>
@@ -3120,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43690</v>
       </c>
@@ -3134,7 +3137,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43690</v>
       </c>
@@ -3148,7 +3151,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43690</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43690</v>
       </c>
@@ -3176,7 +3179,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43718</v>
       </c>
@@ -3190,7 +3193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43718</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43718</v>
       </c>
@@ -3218,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43718</v>
       </c>
@@ -3232,7 +3235,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43718</v>
       </c>
@@ -3246,7 +3249,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43718</v>
       </c>
@@ -3260,7 +3263,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43746</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43746</v>
       </c>
@@ -3288,7 +3291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43746</v>
       </c>
@@ -3302,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43781</v>
       </c>
@@ -3316,7 +3319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43781</v>
       </c>
@@ -3330,7 +3333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43781</v>
       </c>
@@ -3344,7 +3347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43781</v>
       </c>
@@ -3358,7 +3361,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43781</v>
       </c>
@@ -3372,7 +3375,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43809</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43809</v>
       </c>
@@ -3400,7 +3403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43809</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43809</v>
       </c>
@@ -3428,7 +3431,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43809</v>
       </c>
@@ -3442,7 +3445,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43809</v>
       </c>
@@ -3456,7 +3459,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43809</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43809</v>
       </c>
@@ -3484,7 +3487,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43809</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43809</v>
       </c>
@@ -3512,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43809</v>
       </c>
@@ -3526,7 +3529,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43844</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43844</v>
       </c>
@@ -3554,7 +3557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43844</v>
       </c>
@@ -3568,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43844</v>
       </c>
@@ -3582,7 +3585,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43844</v>
       </c>
@@ -3596,7 +3599,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43844</v>
       </c>
@@ -3610,7 +3613,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43844</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43872</v>
       </c>
@@ -3638,7 +3641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43872</v>
       </c>
@@ -3652,7 +3655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43872</v>
       </c>
@@ -3666,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43872</v>
       </c>
@@ -3680,7 +3683,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43872</v>
       </c>
@@ -3694,7 +3697,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43872</v>
       </c>
@@ -3708,7 +3711,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43872</v>
       </c>
@@ -3722,7 +3725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44392</v>
       </c>
@@ -3736,7 +3739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44392</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44392</v>
       </c>
@@ -3764,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44392</v>
       </c>
@@ -3778,7 +3781,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44418</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44418</v>
       </c>
@@ -3806,7 +3809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44509</v>
       </c>
@@ -3820,7 +3823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44509</v>
       </c>
@@ -3834,7 +3837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44509</v>
       </c>
@@ -3848,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44509</v>
       </c>
@@ -3862,7 +3865,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44509</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44509</v>
       </c>
@@ -3890,7 +3893,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44509</v>
       </c>
@@ -3904,7 +3907,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44509</v>
       </c>
@@ -3918,7 +3921,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44572</v>
       </c>
@@ -3932,7 +3935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44572</v>
       </c>
@@ -3946,7 +3949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44572</v>
       </c>
@@ -3960,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44572</v>
       </c>
@@ -3974,7 +3977,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44572</v>
       </c>
@@ -3988,7 +3991,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44572</v>
       </c>
@@ -3999,6 +4002,76 @@
         <v>96</v>
       </c>
       <c r="D139">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>44600</v>
+      </c>
+      <c r="B140" t="s">
+        <v>72</v>
+      </c>
+      <c r="C140" t="s">
+        <v>108</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>44600</v>
+      </c>
+      <c r="B141" t="s">
+        <v>49</v>
+      </c>
+      <c r="C141" t="s">
+        <v>154</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>44600</v>
+      </c>
+      <c r="B142" t="s">
+        <v>60</v>
+      </c>
+      <c r="C142" t="s">
+        <v>96</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>44600</v>
+      </c>
+      <c r="B143" t="s">
+        <v>107</v>
+      </c>
+      <c r="C143" t="s">
+        <v>96</v>
+      </c>
+      <c r="D143">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>44600</v>
+      </c>
+      <c r="B144" t="s">
+        <v>45</v>
+      </c>
+      <c r="C144" t="s">
+        <v>97</v>
+      </c>
+      <c r="D144">
         <v>0.5</v>
       </c>
     </row>
@@ -4036,122 +4109,122 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>147</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb7610fc81a54cae/ABL/ABL 3.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E140C33-B441-45E4-A728-38D6D47D5B2A}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30D24395-A598-4861-A65B-3FE2CF1A03D4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitions" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="161">
   <si>
     <t>Date</t>
   </si>
@@ -498,6 +498,24 @@
   </si>
   <si>
     <t>Best Bitter</t>
+  </si>
+  <si>
+    <t>Club Yeast Beers</t>
+  </si>
+  <si>
+    <t>Meads, Cysers, Ciders</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>SHIVs, Darks (NOT Porters or Stouts)</t>
+  </si>
+  <si>
+    <t>Porters, Stouts, Big Beers</t>
+  </si>
+  <si>
+    <t>Session Beers (under 5% ABV)</t>
   </si>
 </sst>
 </file>
@@ -1054,8 +1072,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:D49" totalsRowShown="0">
-  <autoFilter ref="A1:D49" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:D55" totalsRowShown="0">
+  <autoFilter ref="A1:D55" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Style"/>
@@ -1386,21 +1404,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43109</v>
       </c>
@@ -1428,7 +1446,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43137</v>
       </c>
@@ -1442,7 +1460,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43172</v>
       </c>
@@ -1456,7 +1474,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43200</v>
       </c>
@@ -1470,7 +1488,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43235</v>
       </c>
@@ -1484,7 +1502,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43263</v>
       </c>
@@ -1498,7 +1516,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43291</v>
       </c>
@@ -1512,7 +1530,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43326</v>
       </c>
@@ -1526,7 +1544,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43382</v>
       </c>
@@ -1540,7 +1558,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43354</v>
       </c>
@@ -1554,7 +1572,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43417</v>
       </c>
@@ -1568,7 +1586,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43445</v>
       </c>
@@ -1582,7 +1600,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43473</v>
       </c>
@@ -1596,7 +1614,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43508</v>
       </c>
@@ -1610,7 +1628,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43536</v>
       </c>
@@ -1624,7 +1642,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43564</v>
       </c>
@@ -1638,7 +1656,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43599</v>
       </c>
@@ -1652,7 +1670,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43627</v>
       </c>
@@ -1666,7 +1684,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43655</v>
       </c>
@@ -1680,7 +1698,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43690</v>
       </c>
@@ -1694,7 +1712,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43718</v>
       </c>
@@ -1708,7 +1726,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43746</v>
       </c>
@@ -1722,7 +1740,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43781</v>
       </c>
@@ -1736,7 +1754,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43809</v>
       </c>
@@ -1750,7 +1768,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43844</v>
       </c>
@@ -1764,7 +1782,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43872</v>
       </c>
@@ -1778,7 +1796,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43900</v>
       </c>
@@ -1792,7 +1810,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43935</v>
       </c>
@@ -1806,7 +1824,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43963</v>
       </c>
@@ -1820,7 +1838,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43991</v>
       </c>
@@ -1834,7 +1852,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44026</v>
       </c>
@@ -1848,7 +1866,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44054</v>
       </c>
@@ -1862,7 +1880,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44082</v>
       </c>
@@ -1876,7 +1894,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44117</v>
       </c>
@@ -1890,7 +1908,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44145</v>
       </c>
@@ -1904,7 +1922,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44173</v>
       </c>
@@ -1918,7 +1936,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44392</v>
       </c>
@@ -1932,7 +1950,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44418</v>
       </c>
@@ -1946,7 +1964,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44453</v>
       </c>
@@ -1960,7 +1978,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44481</v>
       </c>
@@ -1974,7 +1992,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44509</v>
       </c>
@@ -1988,7 +2006,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44544</v>
       </c>
@@ -2002,7 +2020,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44572</v>
       </c>
@@ -2016,7 +2034,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44600</v>
       </c>
@@ -2030,7 +2048,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44628</v>
       </c>
@@ -2044,7 +2062,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44663</v>
       </c>
@@ -2058,7 +2076,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44691</v>
       </c>
@@ -2072,7 +2090,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44726</v>
       </c>
@@ -2083,6 +2101,72 @@
         <v>13</v>
       </c>
       <c r="D49">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>44754</v>
+      </c>
+      <c r="B50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>44782</v>
+      </c>
+      <c r="B51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>44817</v>
+      </c>
+      <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B54" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55">
         <v>2015</v>
       </c>
     </row>
@@ -2098,19 +2182,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2124,7 +2208,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43109</v>
       </c>
@@ -2138,7 +2222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43109</v>
       </c>
@@ -2152,7 +2236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43109</v>
       </c>
@@ -2166,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43109</v>
       </c>
@@ -2177,7 +2261,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43109</v>
       </c>
@@ -2188,7 +2272,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43137</v>
       </c>
@@ -2202,7 +2286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43137</v>
       </c>
@@ -2216,7 +2300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43137</v>
       </c>
@@ -2230,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43172</v>
       </c>
@@ -2244,7 +2328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43172</v>
       </c>
@@ -2258,7 +2342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43172</v>
       </c>
@@ -2272,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43172</v>
       </c>
@@ -2283,7 +2367,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43200</v>
       </c>
@@ -2297,7 +2381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43200</v>
       </c>
@@ -2311,7 +2395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43235</v>
       </c>
@@ -2325,7 +2409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43235</v>
       </c>
@@ -2339,7 +2423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43235</v>
       </c>
@@ -2353,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43235</v>
       </c>
@@ -2364,7 +2448,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43235</v>
       </c>
@@ -2375,7 +2459,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43235</v>
       </c>
@@ -2386,7 +2470,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43235</v>
       </c>
@@ -2397,7 +2481,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43235</v>
       </c>
@@ -2408,7 +2492,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43235</v>
       </c>
@@ -2419,7 +2503,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43263</v>
       </c>
@@ -2433,7 +2517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43263</v>
       </c>
@@ -2447,7 +2531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43263</v>
       </c>
@@ -2461,7 +2545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43263</v>
       </c>
@@ -2472,7 +2556,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43263</v>
       </c>
@@ -2483,7 +2567,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43291</v>
       </c>
@@ -2497,7 +2581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43291</v>
       </c>
@@ -2511,7 +2595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43291</v>
       </c>
@@ -2525,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43326</v>
       </c>
@@ -2539,7 +2623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43326</v>
       </c>
@@ -2553,7 +2637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43326</v>
       </c>
@@ -2567,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43382</v>
       </c>
@@ -2581,7 +2665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43326</v>
       </c>
@@ -2592,7 +2676,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43326</v>
       </c>
@@ -2603,7 +2687,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43326</v>
       </c>
@@ -2614,7 +2698,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43326</v>
       </c>
@@ -2625,7 +2709,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43326</v>
       </c>
@@ -2636,7 +2720,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43326</v>
       </c>
@@ -2647,7 +2731,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43382</v>
       </c>
@@ -2661,7 +2745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43382</v>
       </c>
@@ -2675,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43382</v>
       </c>
@@ -2689,7 +2773,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43354</v>
       </c>
@@ -2703,7 +2787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43473</v>
       </c>
@@ -2717,7 +2801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43473</v>
       </c>
@@ -2731,7 +2815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43473</v>
       </c>
@@ -2745,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43473</v>
       </c>
@@ -2759,7 +2843,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43473</v>
       </c>
@@ -2773,7 +2857,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43473</v>
       </c>
@@ -2787,7 +2871,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43508</v>
       </c>
@@ -2801,7 +2885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43508</v>
       </c>
@@ -2815,7 +2899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43536</v>
       </c>
@@ -2829,7 +2913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43536</v>
       </c>
@@ -2843,7 +2927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43536</v>
       </c>
@@ -2857,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43536</v>
       </c>
@@ -2871,7 +2955,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43536</v>
       </c>
@@ -2885,7 +2969,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43627</v>
       </c>
@@ -2899,7 +2983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43627</v>
       </c>
@@ -2913,7 +2997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43627</v>
       </c>
@@ -2927,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43627</v>
       </c>
@@ -2941,7 +3025,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43627</v>
       </c>
@@ -2955,7 +3039,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43627</v>
       </c>
@@ -2969,7 +3053,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43627</v>
       </c>
@@ -2983,7 +3067,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43627</v>
       </c>
@@ -2997,7 +3081,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43627</v>
       </c>
@@ -3011,7 +3095,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43627</v>
       </c>
@@ -3025,7 +3109,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43655</v>
       </c>
@@ -3039,7 +3123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43655</v>
       </c>
@@ -3053,7 +3137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43655</v>
       </c>
@@ -3067,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43655</v>
       </c>
@@ -3081,7 +3165,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43690</v>
       </c>
@@ -3095,7 +3179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43690</v>
       </c>
@@ -3109,7 +3193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43690</v>
       </c>
@@ -3123,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43690</v>
       </c>
@@ -3137,7 +3221,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43690</v>
       </c>
@@ -3151,7 +3235,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43690</v>
       </c>
@@ -3165,7 +3249,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43690</v>
       </c>
@@ -3179,7 +3263,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43718</v>
       </c>
@@ -3193,7 +3277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43718</v>
       </c>
@@ -3207,7 +3291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43718</v>
       </c>
@@ -3221,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43718</v>
       </c>
@@ -3235,7 +3319,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43718</v>
       </c>
@@ -3249,7 +3333,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43718</v>
       </c>
@@ -3263,7 +3347,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43746</v>
       </c>
@@ -3277,7 +3361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43746</v>
       </c>
@@ -3291,7 +3375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43746</v>
       </c>
@@ -3305,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43781</v>
       </c>
@@ -3319,7 +3403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43781</v>
       </c>
@@ -3333,7 +3417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43781</v>
       </c>
@@ -3347,7 +3431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43781</v>
       </c>
@@ -3361,7 +3445,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43781</v>
       </c>
@@ -3375,7 +3459,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43809</v>
       </c>
@@ -3389,7 +3473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43809</v>
       </c>
@@ -3403,7 +3487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43809</v>
       </c>
@@ -3417,7 +3501,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43809</v>
       </c>
@@ -3431,7 +3515,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43809</v>
       </c>
@@ -3445,7 +3529,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43809</v>
       </c>
@@ -3459,7 +3543,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43809</v>
       </c>
@@ -3473,7 +3557,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43809</v>
       </c>
@@ -3487,7 +3571,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43809</v>
       </c>
@@ -3501,7 +3585,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43809</v>
       </c>
@@ -3515,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43809</v>
       </c>
@@ -3529,7 +3613,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43844</v>
       </c>
@@ -3543,7 +3627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43844</v>
       </c>
@@ -3557,7 +3641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43844</v>
       </c>
@@ -3571,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43844</v>
       </c>
@@ -3585,7 +3669,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43844</v>
       </c>
@@ -3599,7 +3683,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43844</v>
       </c>
@@ -3613,7 +3697,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43844</v>
       </c>
@@ -3627,7 +3711,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43872</v>
       </c>
@@ -3641,7 +3725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43872</v>
       </c>
@@ -3655,7 +3739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43872</v>
       </c>
@@ -3669,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43872</v>
       </c>
@@ -3683,7 +3767,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43872</v>
       </c>
@@ -3697,7 +3781,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43872</v>
       </c>
@@ -3711,7 +3795,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43872</v>
       </c>
@@ -3725,7 +3809,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44392</v>
       </c>
@@ -3739,7 +3823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44392</v>
       </c>
@@ -3753,7 +3837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44392</v>
       </c>
@@ -3767,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44392</v>
       </c>
@@ -3781,7 +3865,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44418</v>
       </c>
@@ -3795,7 +3879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44418</v>
       </c>
@@ -3809,7 +3893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44509</v>
       </c>
@@ -3823,7 +3907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44509</v>
       </c>
@@ -3837,7 +3921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44509</v>
       </c>
@@ -3851,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44509</v>
       </c>
@@ -3865,7 +3949,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44509</v>
       </c>
@@ -3879,7 +3963,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44509</v>
       </c>
@@ -3893,7 +3977,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44509</v>
       </c>
@@ -3907,7 +3991,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44509</v>
       </c>
@@ -3921,7 +4005,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44572</v>
       </c>
@@ -3935,7 +4019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44572</v>
       </c>
@@ -3949,7 +4033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44572</v>
       </c>
@@ -3963,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44572</v>
       </c>
@@ -3977,7 +4061,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44572</v>
       </c>
@@ -3991,7 +4075,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44572</v>
       </c>
@@ -4005,7 +4089,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44600</v>
       </c>
@@ -4019,7 +4103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44600</v>
       </c>
@@ -4033,7 +4117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44600</v>
       </c>
@@ -4047,7 +4131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44600</v>
       </c>
@@ -4061,7 +4145,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44600</v>
       </c>
@@ -4109,122 +4193,122 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>147</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb7610fc81a54cae/ABL/ABL 3.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30D24395-A598-4861-A65B-3FE2CF1A03D4}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D994F8C-8314-4C7D-A4A1-E3139F2B2216}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitions" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="163">
   <si>
     <t>Date</t>
   </si>
@@ -516,6 +516,12 @@
   </si>
   <si>
     <t>Session Beers (under 5% ABV)</t>
+  </si>
+  <si>
+    <t>Gose</t>
+  </si>
+  <si>
+    <t>Wild Specialty Beer</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1091,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:D144" totalsRowShown="0">
-  <autoFilter ref="A1:D144" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:D150" totalsRowShown="0">
+  <autoFilter ref="A1:D150" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name"/>
@@ -1406,7 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -2180,10 +2186,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4157,6 +4163,90 @@
       </c>
       <c r="D144">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B145" t="s">
+        <v>45</v>
+      </c>
+      <c r="C145" t="s">
+        <v>126</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B146" t="s">
+        <v>107</v>
+      </c>
+      <c r="C146" t="s">
+        <v>161</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B147" t="s">
+        <v>107</v>
+      </c>
+      <c r="C147" t="s">
+        <v>162</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B148" t="s">
+        <v>107</v>
+      </c>
+      <c r="C148" t="s">
+        <v>162</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B149" t="s">
+        <v>75</v>
+      </c>
+      <c r="C149" t="s">
+        <v>108</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B150" t="s">
+        <v>45</v>
+      </c>
+      <c r="C150" t="s">
+        <v>108</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb7610fc81a54cae/ABL/ABL 3.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D994F8C-8314-4C7D-A4A1-E3139F2B2216}"/>
+  <xr:revisionPtr revIDLastSave="291" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43F2D970-5D6A-43D2-B933-F2370A40581C}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitions" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="164">
   <si>
     <t>Date</t>
   </si>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>Wild Specialty Beer</t>
+  </si>
+  <si>
+    <t>Cream Ale</t>
   </si>
 </sst>
 </file>
@@ -1091,8 +1094,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:D150" totalsRowShown="0">
-  <autoFilter ref="A1:D150" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:D157" totalsRowShown="0">
+  <autoFilter ref="A1:D157" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name"/>
@@ -1416,15 +1419,15 @@
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43109</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43137</v>
       </c>
@@ -1466,7 +1469,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43172</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43200</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43235</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43263</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43291</v>
       </c>
@@ -1536,7 +1539,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43326</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43382</v>
       </c>
@@ -1564,7 +1567,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43354</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43417</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43445</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43473</v>
       </c>
@@ -1620,7 +1623,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43508</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43536</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43564</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43599</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43627</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43655</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43690</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43718</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43746</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43781</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43809</v>
       </c>
@@ -1774,7 +1777,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43844</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43872</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43900</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43935</v>
       </c>
@@ -1830,7 +1833,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43963</v>
       </c>
@@ -1844,7 +1847,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43991</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44026</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44054</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44082</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44117</v>
       </c>
@@ -1914,7 +1917,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44145</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44173</v>
       </c>
@@ -1942,7 +1945,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44392</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44418</v>
       </c>
@@ -1970,7 +1973,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44453</v>
       </c>
@@ -1984,7 +1987,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44481</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44509</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44544</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44572</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44600</v>
       </c>
@@ -2054,7 +2057,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44628</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44663</v>
       </c>
@@ -2082,7 +2085,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44691</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44726</v>
       </c>
@@ -2110,7 +2113,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44754</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44782</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44817</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44845</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44873</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44908</v>
       </c>
@@ -2186,21 +2189,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43109</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43109</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43109</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43109</v>
       </c>
@@ -2267,7 +2270,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43109</v>
       </c>
@@ -2278,7 +2281,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43137</v>
       </c>
@@ -2292,7 +2295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43137</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43137</v>
       </c>
@@ -2320,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43172</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43172</v>
       </c>
@@ -2348,7 +2351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43172</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43172</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43200</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43200</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43235</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43235</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43235</v>
       </c>
@@ -2443,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43235</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43235</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43235</v>
       </c>
@@ -2476,7 +2479,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43235</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43235</v>
       </c>
@@ -2498,7 +2501,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43235</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43263</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43263</v>
       </c>
@@ -2537,7 +2540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43263</v>
       </c>
@@ -2551,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43263</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43263</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43291</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43291</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43291</v>
       </c>
@@ -2615,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43326</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43326</v>
       </c>
@@ -2643,7 +2646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43326</v>
       </c>
@@ -2657,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43382</v>
       </c>
@@ -2671,7 +2674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43326</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43326</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43326</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43326</v>
       </c>
@@ -2715,7 +2718,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43326</v>
       </c>
@@ -2726,7 +2729,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43326</v>
       </c>
@@ -2737,7 +2740,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43382</v>
       </c>
@@ -2751,7 +2754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43382</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43382</v>
       </c>
@@ -2779,7 +2782,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43354</v>
       </c>
@@ -2793,7 +2796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43473</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43473</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43473</v>
       </c>
@@ -2835,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43473</v>
       </c>
@@ -2849,7 +2852,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43473</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43473</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43508</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43508</v>
       </c>
@@ -2905,7 +2908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43536</v>
       </c>
@@ -2919,7 +2922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43536</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43536</v>
       </c>
@@ -2947,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43536</v>
       </c>
@@ -2961,7 +2964,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43536</v>
       </c>
@@ -2975,7 +2978,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43627</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43627</v>
       </c>
@@ -3003,7 +3006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43627</v>
       </c>
@@ -3017,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43627</v>
       </c>
@@ -3031,7 +3034,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43627</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43627</v>
       </c>
@@ -3059,7 +3062,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43627</v>
       </c>
@@ -3073,7 +3076,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43627</v>
       </c>
@@ -3087,7 +3090,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43627</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43627</v>
       </c>
@@ -3115,7 +3118,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43655</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43655</v>
       </c>
@@ -3143,7 +3146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43655</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43655</v>
       </c>
@@ -3171,7 +3174,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43690</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43690</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43690</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43690</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43690</v>
       </c>
@@ -3241,7 +3244,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43690</v>
       </c>
@@ -3255,7 +3258,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43690</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43718</v>
       </c>
@@ -3283,7 +3286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43718</v>
       </c>
@@ -3297,7 +3300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43718</v>
       </c>
@@ -3311,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43718</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43718</v>
       </c>
@@ -3339,7 +3342,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43718</v>
       </c>
@@ -3353,7 +3356,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43746</v>
       </c>
@@ -3367,7 +3370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43746</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43746</v>
       </c>
@@ -3395,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43781</v>
       </c>
@@ -3409,7 +3412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43781</v>
       </c>
@@ -3423,7 +3426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43781</v>
       </c>
@@ -3437,7 +3440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43781</v>
       </c>
@@ -3451,7 +3454,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43781</v>
       </c>
@@ -3465,7 +3468,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43809</v>
       </c>
@@ -3479,7 +3482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43809</v>
       </c>
@@ -3493,7 +3496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43809</v>
       </c>
@@ -3507,7 +3510,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43809</v>
       </c>
@@ -3521,7 +3524,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43809</v>
       </c>
@@ -3535,7 +3538,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43809</v>
       </c>
@@ -3549,7 +3552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43809</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43809</v>
       </c>
@@ -3577,7 +3580,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43809</v>
       </c>
@@ -3591,7 +3594,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43809</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43809</v>
       </c>
@@ -3619,7 +3622,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43844</v>
       </c>
@@ -3633,7 +3636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43844</v>
       </c>
@@ -3647,7 +3650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43844</v>
       </c>
@@ -3661,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43844</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43844</v>
       </c>
@@ -3689,7 +3692,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43844</v>
       </c>
@@ -3703,7 +3706,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43844</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43872</v>
       </c>
@@ -3731,7 +3734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43872</v>
       </c>
@@ -3745,7 +3748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43872</v>
       </c>
@@ -3759,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43872</v>
       </c>
@@ -3773,7 +3776,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43872</v>
       </c>
@@ -3787,7 +3790,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43872</v>
       </c>
@@ -3801,7 +3804,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43872</v>
       </c>
@@ -3815,7 +3818,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44392</v>
       </c>
@@ -3829,7 +3832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44392</v>
       </c>
@@ -3843,7 +3846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44392</v>
       </c>
@@ -3857,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44392</v>
       </c>
@@ -3871,7 +3874,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44418</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44418</v>
       </c>
@@ -3899,7 +3902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44509</v>
       </c>
@@ -3913,7 +3916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44509</v>
       </c>
@@ -3927,7 +3930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44509</v>
       </c>
@@ -3941,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44509</v>
       </c>
@@ -3955,7 +3958,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44509</v>
       </c>
@@ -3969,7 +3972,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44509</v>
       </c>
@@ -3983,7 +3986,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44509</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44509</v>
       </c>
@@ -4011,7 +4014,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44572</v>
       </c>
@@ -4025,7 +4028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44572</v>
       </c>
@@ -4039,7 +4042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44572</v>
       </c>
@@ -4053,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44572</v>
       </c>
@@ -4067,7 +4070,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44572</v>
       </c>
@@ -4081,7 +4084,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44572</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44600</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44600</v>
       </c>
@@ -4123,7 +4126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44600</v>
       </c>
@@ -4137,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44600</v>
       </c>
@@ -4151,7 +4154,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44600</v>
       </c>
@@ -4165,7 +4168,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44628</v>
       </c>
@@ -4179,7 +4182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44628</v>
       </c>
@@ -4193,7 +4196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44628</v>
       </c>
@@ -4207,7 +4210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44628</v>
       </c>
@@ -4221,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44663</v>
       </c>
@@ -4235,7 +4238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44663</v>
       </c>
@@ -4247,6 +4250,90 @@
       </c>
       <c r="D150">
         <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B151" t="s">
+        <v>45</v>
+      </c>
+      <c r="C151" t="s">
+        <v>108</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>44726</v>
+      </c>
+      <c r="B152" t="s">
+        <v>68</v>
+      </c>
+      <c r="C152" t="s">
+        <v>163</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>44726</v>
+      </c>
+      <c r="B153" t="s">
+        <v>47</v>
+      </c>
+      <c r="C153" t="s">
+        <v>101</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>44726</v>
+      </c>
+      <c r="B154" t="s">
+        <v>75</v>
+      </c>
+      <c r="C154" t="s">
+        <v>108</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>44726</v>
+      </c>
+      <c r="B155" t="s">
+        <v>51</v>
+      </c>
+      <c r="C155" t="s">
+        <v>115</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>44726</v>
+      </c>
+      <c r="B156" t="s">
+        <v>107</v>
+      </c>
+      <c r="C156" t="s">
+        <v>115</v>
+      </c>
+      <c r="D156">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -4283,122 +4370,122 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>147</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb7610fc81a54cae/ABL/ABL 3.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="291" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43F2D970-5D6A-43D2-B933-F2370A40581C}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABA52ECE-35FC-40FD-9078-D81D6AE2F24B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitions" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="166">
   <si>
     <t>Date</t>
   </si>
@@ -161,6 +162,24 @@
     <t>Club Brew/Big Brew Day</t>
   </si>
   <si>
+    <t>Session Beers (under 5% ABV)</t>
+  </si>
+  <si>
+    <t>Club Yeast Beers</t>
+  </si>
+  <si>
+    <t>Meads, Cysers, Ciders</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>SHIVs, Darks (NOT Porters or Stouts)</t>
+  </si>
+  <si>
+    <t>Porters, Stouts, Big Beers</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -500,24 +519,6 @@
     <t>Best Bitter</t>
   </si>
   <si>
-    <t>Club Yeast Beers</t>
-  </si>
-  <si>
-    <t>Meads, Cysers, Ciders</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>SHIVs, Darks (NOT Porters or Stouts)</t>
-  </si>
-  <si>
-    <t>Porters, Stouts, Big Beers</t>
-  </si>
-  <si>
-    <t>Session Beers (under 5% ABV)</t>
-  </si>
-  <si>
     <t>Gose</t>
   </si>
   <si>
@@ -525,13 +526,19 @@
   </si>
   <si>
     <t>Cream Ale</t>
+  </si>
+  <si>
+    <t>American Lager</t>
+  </si>
+  <si>
+    <t>Czech Pale Lager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1094,8 +1101,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:D157" totalsRowShown="0">
-  <autoFilter ref="A1:D157" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:D162" totalsRowShown="0">
+  <autoFilter ref="A1:D162" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name"/>
@@ -1419,7 +1426,7 @@
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
@@ -1427,7 +1434,7 @@
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>43109</v>
       </c>
@@ -1455,7 +1462,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>43137</v>
       </c>
@@ -1469,7 +1476,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>43172</v>
       </c>
@@ -1483,7 +1490,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>43200</v>
       </c>
@@ -1497,7 +1504,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>43235</v>
       </c>
@@ -1511,7 +1518,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>43263</v>
       </c>
@@ -1525,7 +1532,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>43291</v>
       </c>
@@ -1539,7 +1546,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>43326</v>
       </c>
@@ -1553,7 +1560,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>43382</v>
       </c>
@@ -1567,7 +1574,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>43354</v>
       </c>
@@ -1581,7 +1588,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>43417</v>
       </c>
@@ -1595,7 +1602,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>43445</v>
       </c>
@@ -1609,7 +1616,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>43473</v>
       </c>
@@ -1623,7 +1630,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>43508</v>
       </c>
@@ -1637,7 +1644,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>43536</v>
       </c>
@@ -1651,7 +1658,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>43564</v>
       </c>
@@ -1665,7 +1672,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>43599</v>
       </c>
@@ -1679,7 +1686,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>43627</v>
       </c>
@@ -1693,7 +1700,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>43655</v>
       </c>
@@ -1707,7 +1714,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>43690</v>
       </c>
@@ -1721,7 +1728,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>43718</v>
       </c>
@@ -1735,7 +1742,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>43746</v>
       </c>
@@ -1749,7 +1756,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>43781</v>
       </c>
@@ -1763,7 +1770,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>43809</v>
       </c>
@@ -1777,7 +1784,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>43844</v>
       </c>
@@ -1791,7 +1798,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>43872</v>
       </c>
@@ -1805,7 +1812,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>43900</v>
       </c>
@@ -1819,7 +1826,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>43935</v>
       </c>
@@ -1833,7 +1840,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>43963</v>
       </c>
@@ -1847,7 +1854,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>43991</v>
       </c>
@@ -1861,7 +1868,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>44026</v>
       </c>
@@ -1875,7 +1882,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>44054</v>
       </c>
@@ -1889,7 +1896,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>44082</v>
       </c>
@@ -1903,7 +1910,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>44117</v>
       </c>
@@ -1917,7 +1924,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>44145</v>
       </c>
@@ -1931,7 +1938,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>44173</v>
       </c>
@@ -1945,7 +1952,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>44392</v>
       </c>
@@ -1959,7 +1966,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>44418</v>
       </c>
@@ -1973,7 +1980,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>44453</v>
       </c>
@@ -1987,7 +1994,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>44481</v>
       </c>
@@ -2001,7 +2008,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>44509</v>
       </c>
@@ -2015,7 +2022,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>44544</v>
       </c>
@@ -2029,7 +2036,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>44572</v>
       </c>
@@ -2043,7 +2050,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>44600</v>
       </c>
@@ -2057,7 +2064,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44628</v>
       </c>
@@ -2071,7 +2078,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>44663</v>
       </c>
@@ -2085,7 +2092,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>44691</v>
       </c>
@@ -2099,7 +2106,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>44726</v>
       </c>
@@ -2113,67 +2120,67 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>44754</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="D50">
         <v>2015</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>44782</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="D51">
         <v>2015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>44817</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="D52">
         <v>2015</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>44845</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="D53">
         <v>2015</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>44873</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="D54">
         <v>2015</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>44908</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="D55">
         <v>2015</v>
@@ -2189,13 +2196,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D156"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -2203,1991 +2210,1991 @@
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>43109</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>43109</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>43109</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>43109</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>43109</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>43137</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>43137</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>43137</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>43172</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>43172</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>43172</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>43172</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>43200</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>43200</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>43235</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>43235</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>43235</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>43235</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>43235</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>43235</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D21">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>43235</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>43235</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D23">
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>43235</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D24">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>43263</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>43263</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>43263</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>43263</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>43263</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D29">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>43291</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>43291</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>43291</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>43326</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>43326</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>43326</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>43382</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>43326</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D37">
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>43326</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D38">
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>43326</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D39">
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>43326</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D40">
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>43326</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D41">
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>43326</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D42">
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>43382</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>43382</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43382</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D45">
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>43354</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>43473</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>43473</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>43473</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>43473</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D50">
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>43473</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D51">
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>43473</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D52">
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>43508</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>43508</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>43536</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>43536</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>43536</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>43536</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D58">
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>43536</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D59">
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>43627</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>43627</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>43627</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>43627</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D63">
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>43627</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D64">
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>43627</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D65">
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>43627</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D66">
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>43627</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D67">
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>43627</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D68">
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>43627</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D69">
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>43655</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>43655</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>43655</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>43655</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D73">
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>43690</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C74" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D74">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>43690</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>43690</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C76" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>43690</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D77">
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>43690</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C78" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D78">
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>43690</v>
       </c>
       <c r="B79" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D79">
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>43690</v>
       </c>
       <c r="B80" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D80">
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>43718</v>
       </c>
       <c r="B81" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D81">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>43718</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>43718</v>
       </c>
       <c r="B83" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>43718</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C84" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D84">
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>43718</v>
       </c>
       <c r="B85" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C85" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D85">
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>43718</v>
       </c>
       <c r="B86" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D86">
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>43746</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D87">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>43746</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>43746</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>43781</v>
       </c>
       <c r="B90" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D90">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>43781</v>
       </c>
       <c r="B91" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D91">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>43781</v>
       </c>
       <c r="B92" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C92" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>43781</v>
       </c>
       <c r="B93" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C93" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D93">
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>43781</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C94" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D94">
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>43809</v>
       </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C95" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D95">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>43809</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C96" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>43809</v>
       </c>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C97" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D97">
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>43809</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D98">
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>43809</v>
       </c>
       <c r="B99" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C99" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D99">
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>43809</v>
       </c>
       <c r="B100" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C100" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D100">
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>43809</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C101" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D101">
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>43809</v>
       </c>
       <c r="B102" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C102" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D102">
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>43809</v>
       </c>
       <c r="B103" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C103" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D103">
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>43809</v>
       </c>
       <c r="B104" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C104" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>43809</v>
       </c>
       <c r="B105" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C105" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D105">
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>43844</v>
       </c>
       <c r="B106" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C106" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D106">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>43844</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C107" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D107">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>43844</v>
       </c>
       <c r="B108" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C108" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>43844</v>
       </c>
       <c r="B109" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C109" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D109">
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>43844</v>
       </c>
       <c r="B110" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C110" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D110">
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>43844</v>
       </c>
       <c r="B111" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D111">
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>43844</v>
       </c>
       <c r="B112" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C112" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D112">
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>43872</v>
       </c>
       <c r="B113" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C113" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D113">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>43872</v>
       </c>
       <c r="B114" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C114" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D114">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>43872</v>
       </c>
       <c r="B115" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C115" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>43872</v>
       </c>
       <c r="B116" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C116" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D116">
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
         <v>43872</v>
       </c>
       <c r="B117" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C117" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D117">
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>43872</v>
       </c>
       <c r="B118" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C118" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D118">
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
         <v>43872</v>
       </c>
       <c r="B119" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C119" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D119">
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>44392</v>
       </c>
       <c r="B120" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C120" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D120">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>44392</v>
       </c>
       <c r="B121" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C121" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D121">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>44392</v>
       </c>
       <c r="B122" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C122" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
         <v>44392</v>
       </c>
       <c r="B123" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C123" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D123">
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>44418</v>
       </c>
       <c r="B124" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C124" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D124">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
         <v>44418</v>
       </c>
       <c r="B125" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C125" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D125">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>44509</v>
       </c>
       <c r="B126" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C126" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D126">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" s="1">
         <v>44509</v>
       </c>
       <c r="B127" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C127" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D127">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
         <v>44509</v>
       </c>
       <c r="B128" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C128" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" s="1">
         <v>44509</v>
       </c>
       <c r="B129" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C129" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D129">
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" s="1">
         <v>44509</v>
       </c>
       <c r="B130" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C130" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D130">
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>44509</v>
       </c>
       <c r="B131" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C131" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D131">
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" s="1">
         <v>44509</v>
       </c>
       <c r="B132" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C132" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D132">
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" s="1">
         <v>44509</v>
       </c>
       <c r="B133" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C133" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D133">
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" s="1">
         <v>44572</v>
       </c>
       <c r="B134" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C134" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D134">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" s="1">
         <v>44572</v>
       </c>
       <c r="B135" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C135" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D135">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" s="1">
         <v>44572</v>
       </c>
       <c r="B136" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C136" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" s="1">
         <v>44572</v>
       </c>
       <c r="B137" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C137" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D137">
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" s="1">
         <v>44572</v>
       </c>
       <c r="B138" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C138" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D138">
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" s="1">
         <v>44572</v>
       </c>
       <c r="B139" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C139" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D139">
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" s="1">
         <v>44600</v>
       </c>
       <c r="B140" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C140" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D140">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" s="1">
         <v>44600</v>
       </c>
       <c r="B141" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C141" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D141">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" s="1">
         <v>44600</v>
       </c>
       <c r="B142" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C142" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" s="1">
         <v>44600</v>
       </c>
       <c r="B143" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C143" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D143">
         <v>0.5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" s="1">
         <v>44600</v>
       </c>
       <c r="B144" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C144" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D144">
         <v>0.5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" s="1">
         <v>44628</v>
       </c>
       <c r="B145" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C145" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D145">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" s="1">
         <v>44628</v>
       </c>
       <c r="B146" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C146" t="s">
         <v>161</v>
@@ -4196,12 +4203,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" s="1">
         <v>44628</v>
       </c>
       <c r="B147" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C147" t="s">
         <v>162</v>
@@ -4210,12 +4217,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" s="1">
         <v>44628</v>
       </c>
       <c r="B148" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C148" t="s">
         <v>162</v>
@@ -4224,54 +4231,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" s="1">
         <v>44663</v>
       </c>
       <c r="B149" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C149" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D149">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" s="1">
         <v>44663</v>
       </c>
       <c r="B150" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C150" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D150">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" s="1">
         <v>44691</v>
       </c>
       <c r="B151" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C151" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D151">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" s="1">
         <v>44726</v>
       </c>
       <c r="B152" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C152" t="s">
         <v>163</v>
@@ -4280,59 +4287,143 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" s="1">
         <v>44726</v>
       </c>
       <c r="B153" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C153" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D153">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" s="1">
         <v>44726</v>
       </c>
       <c r="B154" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C154" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D154">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" s="1">
         <v>44726</v>
       </c>
       <c r="B155" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C155" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" s="1">
         <v>44726</v>
       </c>
       <c r="B156" t="s">
+        <v>113</v>
+      </c>
+      <c r="C156" t="s">
+        <v>121</v>
+      </c>
+      <c r="D156">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>44782</v>
+      </c>
+      <c r="B157" t="s">
+        <v>51</v>
+      </c>
+      <c r="C157" t="s">
+        <v>132</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>44782</v>
+      </c>
+      <c r="B158" t="s">
+        <v>53</v>
+      </c>
+      <c r="C158" t="s">
         <v>107</v>
       </c>
-      <c r="C156" t="s">
-        <v>115</v>
-      </c>
-      <c r="D156">
+      <c r="D158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>44782</v>
+      </c>
+      <c r="B159" t="s">
+        <v>113</v>
+      </c>
+      <c r="C159" t="s">
+        <v>164</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>44782</v>
+      </c>
+      <c r="B160" t="s">
+        <v>57</v>
+      </c>
+      <c r="C160" t="s">
+        <v>165</v>
+      </c>
+      <c r="D160">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>44782</v>
+      </c>
+      <c r="B161" t="s">
+        <v>86</v>
+      </c>
+      <c r="C161" t="s">
+        <v>165</v>
+      </c>
+      <c r="D161">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>44782</v>
+      </c>
+      <c r="B162" t="s">
+        <v>78</v>
+      </c>
+      <c r="C162" t="s">
+        <v>163</v>
+      </c>
+      <c r="D162">
         <v>0.5</v>
       </c>
     </row>
@@ -4370,124 +4461,124 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb7610fc81a54cae/ABL/ABL 3.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABA52ECE-35FC-40FD-9078-D81D6AE2F24B}"/>
+  <xr:revisionPtr revIDLastSave="398" documentId="13_ncr:40009_{60F62788-76A3-4AF9-B9B3-0AD1796CD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3629C39-3A03-4C9B-91F1-E6EB7EE31203}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitions" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="177">
   <si>
     <t>Date</t>
   </si>
@@ -180,6 +181,15 @@
     <t>Porters, Stouts, Big Beers</t>
   </si>
   <si>
+    <t>European</t>
+  </si>
+  <si>
+    <t>Lagers, sours, funky beers</t>
+  </si>
+  <si>
+    <t>Open (big beer recipes)</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -532,6 +542,30 @@
   </si>
   <si>
     <t>Czech Pale Lager</t>
+  </si>
+  <si>
+    <t>Peach with honey cider</t>
+  </si>
+  <si>
+    <t>Peach (dry) cider</t>
+  </si>
+  <si>
+    <t>SHV mead with mesquite and chipotle</t>
+  </si>
+  <si>
+    <t>Black IPA</t>
+  </si>
+  <si>
+    <t>Munich Dunkel</t>
+  </si>
+  <si>
+    <t>Doppelbock</t>
+  </si>
+  <si>
+    <t>Saison (Super, Pale)</t>
+  </si>
+  <si>
+    <t>Shawn</t>
   </si>
 </sst>
 </file>
@@ -1088,8 +1122,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:D55" totalsRowShown="0">
-  <autoFilter ref="A1:D55" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:D67" totalsRowShown="0">
+  <autoFilter ref="A1:D67" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Style"/>
@@ -1101,8 +1135,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:D162" totalsRowShown="0">
-  <autoFilter ref="A1:D162" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:D176" totalsRowShown="0">
+  <autoFilter ref="A1:D176" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name"/>
@@ -1114,8 +1148,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="A1:A23" totalsRowShown="0">
-  <autoFilter ref="A1:A23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="A1:A24" totalsRowShown="0">
+  <autoFilter ref="A1:A24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name"/>
   </tableColumns>
@@ -1420,15 +1454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
@@ -2184,6 +2218,102 @@
       </c>
       <c r="D55">
         <v>2015</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>44936</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>44999</v>
+      </c>
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>45027</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>45146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>45181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1">
+        <v>45244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1">
+        <v>45265</v>
       </c>
     </row>
   </sheetData>
@@ -2196,10 +2326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2215,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2229,10 +2359,10 @@
         <v>43109</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -2243,10 +2373,10 @@
         <v>43109</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2257,10 +2387,10 @@
         <v>43109</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2271,7 +2401,7 @@
         <v>43109</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -2282,7 +2412,7 @@
         <v>43109</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -2293,10 +2423,10 @@
         <v>43137</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -2307,10 +2437,10 @@
         <v>43137</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2321,10 +2451,10 @@
         <v>43137</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2335,10 +2465,10 @@
         <v>43172</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -2349,10 +2479,10 @@
         <v>43172</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -2363,10 +2493,10 @@
         <v>43172</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2377,7 +2507,7 @@
         <v>43172</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>0.5</v>
@@ -2388,10 +2518,10 @@
         <v>43200</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -2402,10 +2532,10 @@
         <v>43200</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2416,10 +2546,10 @@
         <v>43235</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -2430,10 +2560,10 @@
         <v>43235</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2444,10 +2574,10 @@
         <v>43235</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2458,7 +2588,7 @@
         <v>43235</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D19">
         <v>0.5</v>
@@ -2469,7 +2599,7 @@
         <v>43235</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>0.5</v>
@@ -2480,7 +2610,7 @@
         <v>43235</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>0.5</v>
@@ -2491,7 +2621,7 @@
         <v>43235</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D22">
         <v>0.5</v>
@@ -2502,7 +2632,7 @@
         <v>43235</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D23">
         <v>0.5</v>
@@ -2513,7 +2643,7 @@
         <v>43235</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D24">
         <v>0.5</v>
@@ -2524,10 +2654,10 @@
         <v>43263</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -2538,10 +2668,10 @@
         <v>43263</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2552,10 +2682,10 @@
         <v>43263</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2566,7 +2696,7 @@
         <v>43263</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D28">
         <v>0.5</v>
@@ -2577,7 +2707,7 @@
         <v>43263</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D29">
         <v>0.5</v>
@@ -2588,10 +2718,10 @@
         <v>43291</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -2602,10 +2732,10 @@
         <v>43291</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2616,10 +2746,10 @@
         <v>43291</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2630,10 +2760,10 @@
         <v>43326</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -2644,10 +2774,10 @@
         <v>43326</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2658,10 +2788,10 @@
         <v>43326</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2672,10 +2802,10 @@
         <v>43382</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -2686,7 +2816,7 @@
         <v>43326</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D37">
         <v>0.5</v>
@@ -2697,7 +2827,7 @@
         <v>43326</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D38">
         <v>0.5</v>
@@ -2708,7 +2838,7 @@
         <v>43326</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D39">
         <v>0.5</v>
@@ -2719,7 +2849,7 @@
         <v>43326</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D40">
         <v>0.5</v>
@@ -2730,7 +2860,7 @@
         <v>43326</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D41">
         <v>0.5</v>
@@ -2741,7 +2871,7 @@
         <v>43326</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D42">
         <v>0.5</v>
@@ -2752,10 +2882,10 @@
         <v>43382</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2766,10 +2896,10 @@
         <v>43382</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2780,10 +2910,10 @@
         <v>43382</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D45">
         <v>0.5</v>
@@ -2794,10 +2924,10 @@
         <v>43354</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -2808,10 +2938,10 @@
         <v>43473</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -2822,10 +2952,10 @@
         <v>43473</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -2836,10 +2966,10 @@
         <v>43473</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2850,10 +2980,10 @@
         <v>43473</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D50">
         <v>0.5</v>
@@ -2864,10 +2994,10 @@
         <v>43473</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D51">
         <v>0.5</v>
@@ -2878,10 +3008,10 @@
         <v>43473</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D52">
         <v>0.5</v>
@@ -2892,10 +3022,10 @@
         <v>43508</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -2906,10 +3036,10 @@
         <v>43508</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -2920,10 +3050,10 @@
         <v>43536</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -2934,10 +3064,10 @@
         <v>43536</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -2948,10 +3078,10 @@
         <v>43536</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2962,10 +3092,10 @@
         <v>43536</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D58">
         <v>0.5</v>
@@ -2976,10 +3106,10 @@
         <v>43536</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D59">
         <v>0.5</v>
@@ -2990,10 +3120,10 @@
         <v>43627</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3004,10 +3134,10 @@
         <v>43627</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3018,10 +3148,10 @@
         <v>43627</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -3032,10 +3162,10 @@
         <v>43627</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D63">
         <v>0.5</v>
@@ -3046,10 +3176,10 @@
         <v>43627</v>
       </c>
       <c r="B64" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D64">
         <v>0.5</v>
@@ -3060,10 +3190,10 @@
         <v>43627</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D65">
         <v>0.5</v>
@@ -3074,10 +3204,10 @@
         <v>43627</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D66">
         <v>0.5</v>
@@ -3088,10 +3218,10 @@
         <v>43627</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D67">
         <v>0.5</v>
@@ -3102,10 +3232,10 @@
         <v>43627</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D68">
         <v>0.5</v>
@@ -3116,10 +3246,10 @@
         <v>43627</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D69">
         <v>0.5</v>
@@ -3130,10 +3260,10 @@
         <v>43655</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -3144,10 +3274,10 @@
         <v>43655</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -3158,10 +3288,10 @@
         <v>43655</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -3172,10 +3302,10 @@
         <v>43655</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D73">
         <v>0.5</v>
@@ -3186,10 +3316,10 @@
         <v>43690</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -3200,10 +3330,10 @@
         <v>43690</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -3214,10 +3344,10 @@
         <v>43690</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3228,10 +3358,10 @@
         <v>43690</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D77">
         <v>0.5</v>
@@ -3242,10 +3372,10 @@
         <v>43690</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D78">
         <v>0.5</v>
@@ -3256,10 +3386,10 @@
         <v>43690</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D79">
         <v>0.5</v>
@@ -3270,10 +3400,10 @@
         <v>43690</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D80">
         <v>0.5</v>
@@ -3284,10 +3414,10 @@
         <v>43718</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C81" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -3298,10 +3428,10 @@
         <v>43718</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -3312,10 +3442,10 @@
         <v>43718</v>
       </c>
       <c r="B83" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C83" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3326,10 +3456,10 @@
         <v>43718</v>
       </c>
       <c r="B84" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C84" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D84">
         <v>0.5</v>
@@ -3340,10 +3470,10 @@
         <v>43718</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C85" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D85">
         <v>0.5</v>
@@ -3354,10 +3484,10 @@
         <v>43718</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C86" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D86">
         <v>0.5</v>
@@ -3368,10 +3498,10 @@
         <v>43746</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -3382,10 +3512,10 @@
         <v>43746</v>
       </c>
       <c r="B88" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C88" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -3396,10 +3526,10 @@
         <v>43746</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C89" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -3410,10 +3540,10 @@
         <v>43781</v>
       </c>
       <c r="B90" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C90" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -3424,10 +3554,10 @@
         <v>43781</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C91" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -3438,10 +3568,10 @@
         <v>43781</v>
       </c>
       <c r="B92" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -3452,10 +3582,10 @@
         <v>43781</v>
       </c>
       <c r="B93" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C93" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D93">
         <v>0.5</v>
@@ -3466,10 +3596,10 @@
         <v>43781</v>
       </c>
       <c r="B94" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D94">
         <v>0.5</v>
@@ -3480,10 +3610,10 @@
         <v>43809</v>
       </c>
       <c r="B95" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C95" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -3494,10 +3624,10 @@
         <v>43809</v>
       </c>
       <c r="B96" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -3508,10 +3638,10 @@
         <v>43809</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C97" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D97">
         <v>0.5</v>
@@ -3522,10 +3652,10 @@
         <v>43809</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D98">
         <v>0.5</v>
@@ -3536,10 +3666,10 @@
         <v>43809</v>
       </c>
       <c r="B99" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C99" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D99">
         <v>0.5</v>
@@ -3550,10 +3680,10 @@
         <v>43809</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D100">
         <v>0.5</v>
@@ -3564,10 +3694,10 @@
         <v>43809</v>
       </c>
       <c r="B101" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C101" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D101">
         <v>0.5</v>
@@ -3578,10 +3708,10 @@
         <v>43809</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C102" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D102">
         <v>0.5</v>
@@ -3592,10 +3722,10 @@
         <v>43809</v>
       </c>
       <c r="B103" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C103" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D103">
         <v>0.5</v>
@@ -3606,10 +3736,10 @@
         <v>43809</v>
       </c>
       <c r="B104" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C104" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -3620,10 +3750,10 @@
         <v>43809</v>
       </c>
       <c r="B105" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C105" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D105">
         <v>0.5</v>
@@ -3634,10 +3764,10 @@
         <v>43844</v>
       </c>
       <c r="B106" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C106" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -3648,10 +3778,10 @@
         <v>43844</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C107" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -3662,10 +3792,10 @@
         <v>43844</v>
       </c>
       <c r="B108" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C108" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -3676,10 +3806,10 @@
         <v>43844</v>
       </c>
       <c r="B109" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C109" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D109">
         <v>0.5</v>
@@ -3690,10 +3820,10 @@
         <v>43844</v>
       </c>
       <c r="B110" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C110" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D110">
         <v>0.5</v>
@@ -3704,10 +3834,10 @@
         <v>43844</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D111">
         <v>0.5</v>
@@ -3718,10 +3848,10 @@
         <v>43844</v>
       </c>
       <c r="B112" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D112">
         <v>0.5</v>
@@ -3732,10 +3862,10 @@
         <v>43872</v>
       </c>
       <c r="B113" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C113" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D113">
         <v>3</v>
@@ -3746,10 +3876,10 @@
         <v>43872</v>
       </c>
       <c r="B114" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C114" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D114">
         <v>2</v>
@@ -3760,10 +3890,10 @@
         <v>43872</v>
       </c>
       <c r="B115" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C115" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -3774,10 +3904,10 @@
         <v>43872</v>
       </c>
       <c r="B116" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C116" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D116">
         <v>0.5</v>
@@ -3788,10 +3918,10 @@
         <v>43872</v>
       </c>
       <c r="B117" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C117" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D117">
         <v>0.5</v>
@@ -3802,10 +3932,10 @@
         <v>43872</v>
       </c>
       <c r="B118" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C118" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D118">
         <v>0.5</v>
@@ -3816,10 +3946,10 @@
         <v>43872</v>
       </c>
       <c r="B119" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C119" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D119">
         <v>0.5</v>
@@ -3830,10 +3960,10 @@
         <v>44392</v>
       </c>
       <c r="B120" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C120" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D120">
         <v>3</v>
@@ -3844,10 +3974,10 @@
         <v>44392</v>
       </c>
       <c r="B121" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C121" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -3858,10 +3988,10 @@
         <v>44392</v>
       </c>
       <c r="B122" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C122" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -3872,10 +4002,10 @@
         <v>44392</v>
       </c>
       <c r="B123" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C123" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D123">
         <v>0.5</v>
@@ -3886,10 +4016,10 @@
         <v>44418</v>
       </c>
       <c r="B124" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C124" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D124">
         <v>3</v>
@@ -3900,10 +4030,10 @@
         <v>44418</v>
       </c>
       <c r="B125" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C125" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -3914,10 +4044,10 @@
         <v>44509</v>
       </c>
       <c r="B126" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C126" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D126">
         <v>3</v>
@@ -3928,10 +4058,10 @@
         <v>44509</v>
       </c>
       <c r="B127" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C127" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -3942,10 +4072,10 @@
         <v>44509</v>
       </c>
       <c r="B128" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C128" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -3956,10 +4086,10 @@
         <v>44509</v>
       </c>
       <c r="B129" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C129" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D129">
         <v>0.5</v>
@@ -3970,10 +4100,10 @@
         <v>44509</v>
       </c>
       <c r="B130" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C130" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D130">
         <v>0.5</v>
@@ -3984,10 +4114,10 @@
         <v>44509</v>
       </c>
       <c r="B131" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C131" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D131">
         <v>0.5</v>
@@ -3998,10 +4128,10 @@
         <v>44509</v>
       </c>
       <c r="B132" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C132" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D132">
         <v>0.5</v>
@@ -4012,10 +4142,10 @@
         <v>44509</v>
       </c>
       <c r="B133" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C133" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D133">
         <v>0.5</v>
@@ -4026,10 +4156,10 @@
         <v>44572</v>
       </c>
       <c r="B134" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C134" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D134">
         <v>3</v>
@@ -4040,10 +4170,10 @@
         <v>44572</v>
       </c>
       <c r="B135" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C135" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -4054,10 +4184,10 @@
         <v>44572</v>
       </c>
       <c r="B136" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C136" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -4068,10 +4198,10 @@
         <v>44572</v>
       </c>
       <c r="B137" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C137" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D137">
         <v>0.5</v>
@@ -4082,10 +4212,10 @@
         <v>44572</v>
       </c>
       <c r="B138" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C138" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D138">
         <v>0.5</v>
@@ -4096,10 +4226,10 @@
         <v>44572</v>
       </c>
       <c r="B139" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C139" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D139">
         <v>0.5</v>
@@ -4110,10 +4240,10 @@
         <v>44600</v>
       </c>
       <c r="B140" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C140" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D140">
         <v>3</v>
@@ -4124,10 +4254,10 @@
         <v>44600</v>
       </c>
       <c r="B141" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C141" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -4138,10 +4268,10 @@
         <v>44600</v>
       </c>
       <c r="B142" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C142" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -4152,10 +4282,10 @@
         <v>44600</v>
       </c>
       <c r="B143" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C143" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D143">
         <v>0.5</v>
@@ -4166,10 +4296,10 @@
         <v>44600</v>
       </c>
       <c r="B144" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C144" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D144">
         <v>0.5</v>
@@ -4180,10 +4310,10 @@
         <v>44628</v>
       </c>
       <c r="B145" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C145" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D145">
         <v>3</v>
@@ -4194,10 +4324,10 @@
         <v>44628</v>
       </c>
       <c r="B146" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C146" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D146">
         <v>3</v>
@@ -4208,10 +4338,10 @@
         <v>44628</v>
       </c>
       <c r="B147" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C147" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D147">
         <v>2</v>
@@ -4222,10 +4352,10 @@
         <v>44628</v>
       </c>
       <c r="B148" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C148" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -4236,10 +4366,10 @@
         <v>44663</v>
       </c>
       <c r="B149" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C149" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D149">
         <v>3</v>
@@ -4250,10 +4380,10 @@
         <v>44663</v>
       </c>
       <c r="B150" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C150" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -4264,10 +4394,10 @@
         <v>44691</v>
       </c>
       <c r="B151" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C151" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D151">
         <v>3</v>
@@ -4278,10 +4408,10 @@
         <v>44726</v>
       </c>
       <c r="B152" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C152" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D152">
         <v>3</v>
@@ -4292,10 +4422,10 @@
         <v>44726</v>
       </c>
       <c r="B153" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C153" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -4306,10 +4436,10 @@
         <v>44726</v>
       </c>
       <c r="B154" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C154" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -4320,10 +4450,10 @@
         <v>44726</v>
       </c>
       <c r="B155" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C155" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -4334,10 +4464,10 @@
         <v>44726</v>
       </c>
       <c r="B156" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C156" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D156">
         <v>0.5</v>
@@ -4348,10 +4478,10 @@
         <v>44782</v>
       </c>
       <c r="B157" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C157" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D157">
         <v>3</v>
@@ -4362,10 +4492,10 @@
         <v>44782</v>
       </c>
       <c r="B158" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C158" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D158">
         <v>2</v>
@@ -4376,10 +4506,10 @@
         <v>44782</v>
       </c>
       <c r="B159" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C159" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -4390,10 +4520,10 @@
         <v>44782</v>
       </c>
       <c r="B160" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C160" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D160">
         <v>0.5</v>
@@ -4404,10 +4534,10 @@
         <v>44782</v>
       </c>
       <c r="B161" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C161" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D161">
         <v>0.5</v>
@@ -4418,13 +4548,209 @@
         <v>44782</v>
       </c>
       <c r="B162" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D162">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>44817</v>
+      </c>
+      <c r="B163" t="s">
+        <v>56</v>
+      </c>
+      <c r="C163" t="s">
+        <v>169</v>
+      </c>
+      <c r="D163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>44817</v>
+      </c>
+      <c r="B164" t="s">
+        <v>56</v>
+      </c>
+      <c r="C164" t="s">
+        <v>170</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B165" t="s">
+        <v>90</v>
+      </c>
+      <c r="C165" t="s">
+        <v>94</v>
+      </c>
+      <c r="D165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B166" t="s">
+        <v>54</v>
+      </c>
+      <c r="C166" t="s">
+        <v>124</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B167" t="s">
+        <v>89</v>
+      </c>
+      <c r="C167" t="s">
+        <v>168</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B168" t="s">
+        <v>90</v>
+      </c>
+      <c r="C168" t="s">
+        <v>171</v>
+      </c>
+      <c r="D168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B169" t="s">
+        <v>54</v>
+      </c>
+      <c r="C169" t="s">
+        <v>172</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B170" t="s">
+        <v>56</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B171" t="s">
+        <v>56</v>
+      </c>
+      <c r="C171" t="s">
+        <v>173</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B172" t="s">
+        <v>56</v>
+      </c>
+      <c r="C172" t="s">
+        <v>174</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B173" t="s">
+        <v>84</v>
+      </c>
+      <c r="C173" t="s">
+        <v>158</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B174" t="s">
+        <v>54</v>
+      </c>
+      <c r="C174" t="s">
+        <v>118</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>44936</v>
+      </c>
+      <c r="B175" t="s">
+        <v>54</v>
+      </c>
+      <c r="C175" t="s">
+        <v>175</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>44936</v>
+      </c>
+      <c r="B176" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" t="s">
+        <v>127</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4443,7 +4769,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Date must be listed as a competition date in the &quot;Competitions&quot; table." xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
-            <xm:f>Competitions!$A$2:$A$10000</xm:f>
+            <xm:f>Competitions!$A$2:$A$9964</xm:f>
           </x14:formula1>
           <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -4455,10 +4781,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4468,117 +4794,122 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
